--- a/spliced/falling/2023-03-25_17-59-08/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-08/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-1.791717648506165</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1.882777214050291</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5.883625364303589</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.771220207214356</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-59-08/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-08/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.799852418899536</v>
+        <v>-2.778316736221313</v>
       </c>
       <c r="B2" t="n">
-        <v>6.562464380264283</v>
+        <v>6.619067668914795</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.04518318772316</v>
+        <v>-0.6493567824363708</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.921730804443359</v>
+        <v>-2.981808757781982</v>
       </c>
       <c r="B3" t="n">
-        <v>6.461819076538085</v>
+        <v>6.65326156616211</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.420121455192567</v>
+        <v>-0.8340041637420658</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.64505925178528</v>
+        <v>-2.862793350219726</v>
       </c>
       <c r="B4" t="n">
-        <v>6.319645357131958</v>
+        <v>6.595655870437622</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.137768888473512</v>
+        <v>-1.086881220340729</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.560260105133056</v>
+        <v>-2.658387470245361</v>
       </c>
       <c r="B5" t="n">
-        <v>5.857164859771728</v>
+        <v>6.523494625091553</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.574245262145996</v>
+        <v>-1.100642728805541</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.488956928253174</v>
+        <v>-2.623731708526611</v>
       </c>
       <c r="B6" t="n">
-        <v>5.242366313934325</v>
+        <v>6.502191925048828</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.541561126708986</v>
+        <v>-0.9057361066341401</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.976312160491945</v>
+        <v>-2.912428379058838</v>
       </c>
       <c r="B7" t="n">
-        <v>4.683113002777098</v>
+        <v>6.643356800079346</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.901833915710452</v>
+        <v>-0.9624049067497252</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.27849884033203</v>
+        <v>-2.799852418899536</v>
       </c>
       <c r="B8" t="n">
-        <v>4.203760409355163</v>
+        <v>6.562464380264283</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.137033796310429</v>
+        <v>-1.04518318772316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.059399700164795</v>
+        <v>-2.921730804443359</v>
       </c>
       <c r="B9" t="n">
-        <v>3.346987175941464</v>
+        <v>6.461819076538085</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.092747974395745</v>
+        <v>-1.420121455192567</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.056312322616568</v>
+        <v>-3.64505925178528</v>
       </c>
       <c r="B10" t="n">
-        <v>2.196766674518599</v>
+        <v>6.319645357131958</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6121338844299181</v>
+        <v>-2.137768888473512</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.137712478637695</v>
+        <v>-3.560260105133056</v>
       </c>
       <c r="B11" t="n">
-        <v>9.979324340820312</v>
+        <v>5.857164859771728</v>
       </c>
       <c r="C11" t="n">
-        <v>6.995259761810303</v>
+        <v>-2.574245262145996</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-5.27030158042908</v>
+        <v>-3.488956928253174</v>
       </c>
       <c r="B12" t="n">
-        <v>6.398296785354612</v>
+        <v>5.242366313934325</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.064579951763156</v>
+        <v>-3.541561126708986</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9.112322330474868</v>
+        <v>-3.976312160491945</v>
       </c>
       <c r="B13" t="n">
-        <v>4.601176929473875</v>
+        <v>4.683113002777098</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.501108241081238</v>
+        <v>-4.901833915710452</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.462616539001423</v>
+        <v>-4.27849884033203</v>
       </c>
       <c r="B14" t="n">
-        <v>5.74287872314454</v>
+        <v>4.203760409355163</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.951083517074581</v>
+        <v>-6.137033796310429</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.208791923522958</v>
+        <v>-4.059399700164795</v>
       </c>
       <c r="B15" t="n">
-        <v>6.954292774200445</v>
+        <v>3.346987175941464</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.887256383895876</v>
+        <v>-6.092747974395745</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.056319236755372</v>
+        <v>-4.056312322616568</v>
       </c>
       <c r="B16" t="n">
-        <v>5.56828045845031</v>
+        <v>2.196766674518599</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.578303456306456</v>
+        <v>-0.6121338844299181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.340787315368646</v>
+        <v>1.137712478637695</v>
       </c>
       <c r="B17" t="n">
-        <v>4.649471092224126</v>
+        <v>9.979324340820312</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.28086395263672</v>
+        <v>6.995259761810303</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.86997218132019</v>
+        <v>-5.27030158042908</v>
       </c>
       <c r="B18" t="n">
-        <v>6.004907035827637</v>
+        <v>6.398296785354612</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.588819026947022</v>
+        <v>-1.064579951763156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.657377624511718</v>
+        <v>9.112322330474868</v>
       </c>
       <c r="B19" t="n">
-        <v>6.300898742675783</v>
+        <v>4.601176929473875</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.739501070976257</v>
+        <v>-2.501108241081238</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.416164684295658</v>
+        <v>5.462616539001423</v>
       </c>
       <c r="B20" t="n">
-        <v>6.649864673614499</v>
+        <v>5.74287872314454</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.776257181167603</v>
+        <v>-1.951083517074581</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>3.208791923522958</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6.954292774200445</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.887256383895876</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4.056319236755372</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.56828045845031</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.578303456306456</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.340787315368646</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.649471092224126</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.28086395263672</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.86997218132019</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6.004907035827637</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.588819026947022</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.657377624511718</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6.300898742675783</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.739501070976257</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.416164684295658</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6.649864673614499</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.776257181167603</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>2.375874519348145</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>6.059439659118652</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>-1.791717648506165</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1.882777214050291</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.883625364303589</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.771220207214356</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2.030305290222169</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6.322917270660403</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.870007395744325</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.015394306182861</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6.204385328292845</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.822170174121856</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.990867900848389</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6.087325572967529</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.848094010353089</v>
       </c>
     </row>
   </sheetData>
